--- a/Business data 2.xlsx
+++ b/Business data 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/388bb36766970e7e/Documents/Data science/Week 8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86CAF36A-453D-4D14-BFE8-AAE97694A29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{86CAF36A-453D-4D14-BFE8-AAE97694A29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4382C2F-25DD-4F4A-9C33-199D30892C5B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F64E56FA-4966-4385-BDB9-151744D64A4C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F64E56FA-4966-4385-BDB9-151744D64A4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t xml:space="preserve">Increased access to data in my business sector would help my business grow </t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t xml:space="preserve">Don't know </t>
+  </si>
+  <si>
+    <t>Q2</t>
   </si>
 </sst>
 </file>
@@ -434,33 +434,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA219B6-E713-4B38-80A2-8026B4D3C835}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>18</v>
@@ -480,7 +482,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>32</v>
@@ -500,7 +502,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -520,7 +522,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -540,7 +542,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -560,7 +562,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>5</v>
